--- a/reportes/10.10.2.25.xlsx
+++ b/reportes/10.10.2.25.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUIRRE  DIAZ  ROBERTO  ANTONIO </t>
-  </si>
-  <si>
-    <t>2016-17755/201761746</t>
+    <t>CALABERA   HERNANDEZ  JIMMY  EMANUEL</t>
+  </si>
+  <si>
+    <t>/201761945</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,16 +49,16 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1977-05-21</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCUINTLA,NUEVA CONCEPCION </t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
+    <t>2004-06-17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -76,15 +76,15 @@
     <t>SOLTERO</t>
   </si>
   <si>
+    <t xml:space="preserve">ESTUDIANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUATEMALA </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>2434 100850513</t>
-  </si>
-  <si>
     <t>En caso de emergencia notificar a:</t>
   </si>
   <si>
@@ -97,22 +97,22 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ELDA HERNANDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCARGADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 CALLE A </t>
-  </si>
-  <si>
-    <t>40 82 87 39</t>
+    <t xml:space="preserve">JIMMY CALABERA </t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>COL. ILUSIONES SECCION K LOTE 16</t>
+  </si>
+  <si>
+    <t>42 85 12 27</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 8:45:59</t>
+    <t>Hora: 12:18:7</t>
   </si>
   <si>
     <t>Area de urgencia: TRAUMA</t>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>

--- a/reportes/10.10.2.25.xlsx
+++ b/reportes/10.10.2.25.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>CALABERA   HERNANDEZ  JIMMY  EMANUEL</t>
-  </si>
-  <si>
-    <t>/201761945</t>
+    <t>RASCÒN  ALTALEF  JORGE  SAMUEL OSWALDO</t>
+  </si>
+  <si>
+    <t>/201762650</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>2004-06-17</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1973-06-08</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>TIQUISATE, ESCUINTLA</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -76,15 +76,15 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTUDIANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUATEMALA </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>1878491610506</t>
+  </si>
+  <si>
     <t>En caso de emergencia notificar a:</t>
   </si>
   <si>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve">JIMMY CALABERA </t>
-  </si>
-  <si>
-    <t>PAPA</t>
-  </si>
-  <si>
-    <t>COL. ILUSIONES SECCION K LOTE 16</t>
-  </si>
-  <si>
-    <t>42 85 12 27</t>
+    <t>SINTI RAXTUN</t>
+  </si>
+  <si>
+    <t>HERMANA</t>
+  </si>
+  <si>
+    <t>13 C. 3-08 Z. 2 EL ZAPOTE</t>
+  </si>
+  <si>
+    <t>52063422</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 12:18:7</t>
-  </si>
-  <si>
-    <t>Area de urgencia: TRAUMA</t>
-  </si>
-  <si>
-    <t>23/10/2017</t>
+    <t>Hora: 15:46:8</t>
+  </si>
+  <si>
+    <t>Area de urgencia: CIRUGIA</t>
+  </si>
+  <si>
+    <t>24/10/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>

--- a/reportes/10.10.2.25.xlsx
+++ b/reportes/10.10.2.25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>RASCÒN  ALTALEF  JORGE  SAMUEL OSWALDO</t>
-  </si>
-  <si>
-    <t>/201762650</t>
+    <t>VELA  RODRIGUEZ  MARVIN  FRANCISCO</t>
+  </si>
+  <si>
+    <t>/201769603</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1973-06-08</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>TIQUISATE, ESCUINTLA</t>
+    <t>1984-10-08</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>EL PROGRESO GUSTATOYA</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -76,79 +76,82 @@
     <t>SOLTERO</t>
   </si>
   <si>
+    <t>COMERCIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>NO PRESENTO</t>
+  </si>
+  <si>
+    <t>En caso de emergencia notificar a:</t>
+  </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>NINGUNO</t>
+  </si>
+  <si>
+    <t>BARRIO LA JOYA EL PROGRESO</t>
+  </si>
+  <si>
+    <t>NO TIENE</t>
+  </si>
+  <si>
+    <t>Fecha de la asistencia Médica</t>
+  </si>
+  <si>
+    <t>Hora: 15:33:36</t>
+  </si>
+  <si>
+    <t>Area de urgencia: MEDICINA</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>MEDICINA</t>
+  </si>
+  <si>
+    <t>CIRUGIA</t>
+  </si>
+  <si>
+    <t>TRAUMA</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA</t>
+  </si>
+  <si>
+    <t>GINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Consulta </t>
+  </si>
+  <si>
+    <t>urgencia</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
+  </si>
+  <si>
+    <t>MOTIVO DE CONSULTA</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>1878491610506</t>
-  </si>
-  <si>
-    <t>En caso de emergencia notificar a:</t>
-  </si>
-  <si>
-    <t>Parentesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direccion </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>SINTI RAXTUN</t>
-  </si>
-  <si>
-    <t>HERMANA</t>
-  </si>
-  <si>
-    <t>13 C. 3-08 Z. 2 EL ZAPOTE</t>
-  </si>
-  <si>
-    <t>52063422</t>
-  </si>
-  <si>
-    <t>Fecha de la asistencia Médica</t>
-  </si>
-  <si>
-    <t>Hora: 15:46:8</t>
-  </si>
-  <si>
-    <t>Area de urgencia: CIRUGIA</t>
-  </si>
-  <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>MEDICINA</t>
-  </si>
-  <si>
-    <t>CIRUGIA</t>
-  </si>
-  <si>
-    <t>TRAUMA</t>
-  </si>
-  <si>
-    <t>OBSTETRICIA</t>
-  </si>
-  <si>
-    <t>GINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Consulta </t>
-  </si>
-  <si>
-    <t>urgencia</t>
-  </si>
-  <si>
-    <t>URGENCIA</t>
-  </si>
-  <si>
-    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
-  </si>
-  <si>
-    <t>MOTIVO DE CONSULTA</t>
   </si>
   <si>
     <t>HISTORIA DE LA ENFERMEDAD</t>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1178,7 +1181,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1306,13 +1309,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1335,13 +1338,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1421,7 +1424,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>

--- a/reportes/10.10.2.25.xlsx
+++ b/reportes/10.10.2.25.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>VELA  RODRIGUEZ  MARVIN  FRANCISCO</t>
-  </si>
-  <si>
-    <t>/201769603</t>
+    <t>MONTERROSO  LÓPEZ  CRISTIAN  JOSUÉ</t>
+  </si>
+  <si>
+    <t>/201773491</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1984-10-08</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>EL PROGRESO GUSTATOYA</t>
+    <t>1993-02-23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>CHINAUTLA</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -76,13 +76,13 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>COMERCIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>NO PRESENTO</t>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>2201016710106</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>SOLO</t>
-  </si>
-  <si>
-    <t>NINGUNO</t>
-  </si>
-  <si>
-    <t>BARRIO LA JOYA EL PROGRESO</t>
-  </si>
-  <si>
-    <t>NO TIENE</t>
+    <t>ANDREA MORENO</t>
+  </si>
+  <si>
+    <t>ENCARGADA</t>
+  </si>
+  <si>
+    <t>34 AV 12-16 Z. 5 EL EDEN</t>
+  </si>
+  <si>
+    <t>49803299</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 15:33:36</t>
+    <t>Hora: 15:45:35</t>
   </si>
   <si>
     <t>Area de urgencia: MEDICINA</t>
   </si>
   <si>
-    <t>10/11/2017</t>
+    <t>20/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>

--- a/reportes/10.10.2.25.xlsx
+++ b/reportes/10.10.2.25.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>MONTERROSO  LÓPEZ  CRISTIAN  JOSUÉ</t>
-  </si>
-  <si>
-    <t>/201773491</t>
+    <t>SANTOS  ESQUITA  JEFERSON  IVAN</t>
+  </si>
+  <si>
+    <t>/201774344</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1993-02-23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>CHINAUTLA</t>
+    <t>2004-10-16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CAPITAL</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -76,13 +76,13 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>VARIOS</t>
+    <t>ESTUDIANTE</t>
   </si>
   <si>
     <t>GUATEMALTECO</t>
   </si>
   <si>
-    <t>2201016710106</t>
+    <t>NO PRESENTO</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ANDREA MORENO</t>
-  </si>
-  <si>
-    <t>ENCARGADA</t>
-  </si>
-  <si>
-    <t>34 AV 12-16 Z. 5 EL EDEN</t>
-  </si>
-  <si>
-    <t>49803299</t>
+    <t>MILDRED ESQUITE</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 CALLE 1-72 ZONA 1 </t>
+  </si>
+  <si>
+    <t>55028136</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 15:45:35</t>
+    <t>Hora: 18:48:24</t>
   </si>
   <si>
     <t>Area de urgencia: MEDICINA</t>
   </si>
   <si>
-    <t>20/11/2017</t>
+    <t>22/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
